--- a/output2a.xlsx
+++ b/output2a.xlsx
@@ -454,12 +454,12 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Agriculture</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1715,12 +1715,12 @@
       <c r="A153" t="n">
         <v>152</v>
       </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Apparel</t>
         </is>
       </c>
+      <c r="C153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3338,12 +3338,12 @@
       <c r="A342" t="n">
         <v>341</v>
       </c>
-      <c r="B342" t="inlineStr"/>
-      <c r="C342" t="inlineStr">
+      <c r="B342" t="inlineStr">
         <is>
           <t>Automobiles &amp; Motorcycles</t>
         </is>
       </c>
+      <c r="C342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -4884,12 +4884,12 @@
       <c r="A536" t="n">
         <v>535</v>
       </c>
-      <c r="B536" t="inlineStr"/>
-      <c r="C536" t="inlineStr">
+      <c r="B536" t="inlineStr">
         <is>
           <t>Beauty &amp; Personal Care</t>
         </is>
       </c>
+      <c r="C536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -6530,12 +6530,12 @@
       <c r="A750" t="n">
         <v>749</v>
       </c>
-      <c r="B750" t="inlineStr"/>
-      <c r="C750" t="inlineStr">
+      <c r="B750" t="inlineStr">
         <is>
           <t>Business Services</t>
         </is>
       </c>
+      <c r="C750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="n">
@@ -8020,12 +8020,12 @@
       <c r="A928" t="n">
         <v>927</v>
       </c>
-      <c r="B928" t="inlineStr"/>
-      <c r="C928" t="inlineStr">
+      <c r="B928" t="inlineStr">
         <is>
           <t>Chemicals</t>
         </is>
       </c>
+      <c r="C928" t="inlineStr"/>
     </row>
     <row r="929">
       <c r="A929" t="n">
@@ -9585,12 +9585,12 @@
       <c r="A1071" t="n">
         <v>1070</v>
       </c>
-      <c r="B1071" t="inlineStr"/>
-      <c r="C1071" t="inlineStr">
+      <c r="B1071" t="inlineStr">
         <is>
           <t>Construction &amp; Real Estate</t>
         </is>
       </c>
+      <c r="C1071" t="inlineStr"/>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
@@ -11671,12 +11671,12 @@
       <c r="A1317" t="n">
         <v>1316</v>
       </c>
-      <c r="B1317" t="inlineStr"/>
-      <c r="C1317" t="inlineStr">
+      <c r="B1317" t="inlineStr">
         <is>
           <t>Consumer Electronics</t>
         </is>
       </c>
+      <c r="C1317" t="inlineStr"/>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
@@ -12215,12 +12215,12 @@
       <c r="A1385" t="n">
         <v>1384</v>
       </c>
-      <c r="B1385" t="inlineStr"/>
-      <c r="C1385" t="inlineStr">
+      <c r="B1385" t="inlineStr">
         <is>
           <t>Electrical Equipment &amp; Supplies</t>
         </is>
       </c>
+      <c r="C1385" t="inlineStr"/>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
@@ -12952,12 +12952,12 @@
       <c r="A1468" t="n">
         <v>1467</v>
       </c>
-      <c r="B1468" t="inlineStr"/>
-      <c r="C1468" t="inlineStr">
+      <c r="B1468" t="inlineStr">
         <is>
           <t>Electronic Components &amp; Supplies</t>
         </is>
       </c>
+      <c r="C1468" t="inlineStr"/>
     </row>
     <row r="1469">
       <c r="A1469" t="n">
@@ -13344,12 +13344,12 @@
       <c r="A1512" t="n">
         <v>1511</v>
       </c>
-      <c r="B1512" t="inlineStr"/>
-      <c r="C1512" t="inlineStr">
+      <c r="B1512" t="inlineStr">
         <is>
           <t>Energy</t>
         </is>
       </c>
+      <c r="C1512" t="inlineStr"/>
     </row>
     <row r="1513">
       <c r="A1513" t="n">
@@ -13698,12 +13698,12 @@
       <c r="A1546" t="n">
         <v>1545</v>
       </c>
-      <c r="B1546" t="inlineStr"/>
-      <c r="C1546" t="inlineStr">
+      <c r="B1546" t="inlineStr">
         <is>
           <t>Environment</t>
         </is>
       </c>
+      <c r="C1546" t="inlineStr"/>
     </row>
     <row r="1547">
       <c r="A1547" t="n">
@@ -13871,12 +13871,12 @@
       <c r="A1561" t="n">
         <v>1560</v>
       </c>
-      <c r="B1561" t="inlineStr"/>
-      <c r="C1561" t="inlineStr">
+      <c r="B1561" t="inlineStr">
         <is>
           <t>Excess Inventory</t>
         </is>
       </c>
+      <c r="C1561" t="inlineStr"/>
     </row>
     <row r="1562">
       <c r="A1562" t="n">
@@ -13941,12 +13941,12 @@
       <c r="A1567" t="n">
         <v>1566</v>
       </c>
-      <c r="B1567" t="inlineStr"/>
-      <c r="C1567" t="inlineStr">
+      <c r="B1567" t="inlineStr">
         <is>
           <t>Fashion Accessories</t>
         </is>
       </c>
+      <c r="C1567" t="inlineStr"/>
     </row>
     <row r="1568">
       <c r="A1568" t="n">
@@ -14570,12 +14570,12 @@
       <c r="A1646" t="n">
         <v>1645</v>
       </c>
-      <c r="B1646" t="inlineStr"/>
-      <c r="C1646" t="inlineStr">
+      <c r="B1646" t="inlineStr">
         <is>
           <t>Food &amp; Beverage</t>
         </is>
       </c>
+      <c r="C1646" t="inlineStr"/>
     </row>
     <row r="1647">
       <c r="A1647" t="n">
@@ -15964,12 +15964,12 @@
       <c r="A1816" t="n">
         <v>1815</v>
       </c>
-      <c r="B1816" t="inlineStr"/>
-      <c r="C1816" t="inlineStr">
+      <c r="B1816" t="inlineStr">
         <is>
           <t>Furniture</t>
         </is>
       </c>
+      <c r="C1816" t="inlineStr"/>
     </row>
     <row r="1817">
       <c r="A1817" t="n">
@@ -16985,12 +16985,12 @@
       <c r="A1951" t="n">
         <v>1950</v>
       </c>
-      <c r="B1951" t="inlineStr"/>
-      <c r="C1951" t="inlineStr">
+      <c r="B1951" t="inlineStr">
         <is>
           <t>Gifts &amp; Crafts</t>
         </is>
       </c>
+      <c r="C1951" t="inlineStr"/>
     </row>
     <row r="1952">
       <c r="A1952" t="n">
@@ -17441,12 +17441,12 @@
       <c r="A1995" t="n">
         <v>1994</v>
       </c>
-      <c r="B1995" t="inlineStr"/>
-      <c r="C1995" t="inlineStr">
+      <c r="B1995" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
+      <c r="C1995" t="inlineStr"/>
     </row>
     <row r="1996">
       <c r="A1996" t="n">
@@ -17702,12 +17702,12 @@
       <c r="A2018" t="n">
         <v>2017</v>
       </c>
-      <c r="B2018" t="inlineStr"/>
-      <c r="C2018" t="inlineStr">
+      <c r="B2018" t="inlineStr">
         <is>
           <t>Health &amp; Medical</t>
         </is>
       </c>
+      <c r="C2018" t="inlineStr"/>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
@@ -18161,12 +18161,12 @@
       <c r="A2075" t="n">
         <v>2074</v>
       </c>
-      <c r="B2075" t="inlineStr"/>
-      <c r="C2075" t="inlineStr">
+      <c r="B2075" t="inlineStr">
         <is>
           <t>Home &amp; Garden</t>
         </is>
       </c>
+      <c r="C2075" t="inlineStr"/>
     </row>
     <row r="2076">
       <c r="A2076" t="n">
@@ -20175,12 +20175,12 @@
       <c r="A2345" t="n">
         <v>2344</v>
       </c>
-      <c r="B2345" t="inlineStr"/>
-      <c r="C2345" t="inlineStr">
+      <c r="B2345" t="inlineStr">
         <is>
           <t>Home Appliances</t>
         </is>
       </c>
+      <c r="C2345" t="inlineStr"/>
     </row>
     <row r="2346">
       <c r="A2346" t="n">
@@ -21466,12 +21466,12 @@
       <c r="A2514" t="n">
         <v>2513</v>
       </c>
-      <c r="B2514" t="inlineStr"/>
-      <c r="C2514" t="inlineStr">
+      <c r="B2514" t="inlineStr">
         <is>
           <t>Lights &amp; Lighting</t>
         </is>
       </c>
+      <c r="C2514" t="inlineStr"/>
     </row>
     <row r="2515">
       <c r="A2515" t="n">
@@ -21979,12 +21979,12 @@
       <c r="A2581" t="n">
         <v>2580</v>
       </c>
-      <c r="B2581" t="inlineStr"/>
-      <c r="C2581" t="inlineStr">
+      <c r="B2581" t="inlineStr">
         <is>
           <t>Luggage, Bags &amp; Cases</t>
         </is>
       </c>
+      <c r="C2581" t="inlineStr"/>
     </row>
     <row r="2582">
       <c r="A2582" t="n">
@@ -22450,12 +22450,12 @@
       <c r="A2634" t="n">
         <v>2633</v>
       </c>
-      <c r="B2634" t="inlineStr"/>
-      <c r="C2634" t="inlineStr">
+      <c r="B2634" t="inlineStr">
         <is>
           <t>Machinery</t>
         </is>
       </c>
+      <c r="C2634" t="inlineStr"/>
     </row>
     <row r="2635">
       <c r="A2635" t="n">
@@ -26248,12 +26248,12 @@
       <c r="A3040" t="n">
         <v>3039</v>
       </c>
-      <c r="B3040" t="inlineStr"/>
-      <c r="C3040" t="inlineStr">
+      <c r="B3040" t="inlineStr">
         <is>
           <t>Measurement &amp; Analysis Instruments</t>
         </is>
       </c>
+      <c r="C3040" t="inlineStr"/>
     </row>
     <row r="3041">
       <c r="A3041" t="n">
@@ -26986,12 +26986,12 @@
       <c r="A3122" t="n">
         <v>3121</v>
       </c>
-      <c r="B3122" t="inlineStr"/>
-      <c r="C3122" t="inlineStr">
+      <c r="B3122" t="inlineStr">
         <is>
           <t>Mechanical Parts &amp; Fabrication Services</t>
         </is>
       </c>
+      <c r="C3122" t="inlineStr"/>
     </row>
     <row r="3123">
       <c r="A3123" t="n">
@@ -27768,12 +27768,12 @@
       <c r="A3208" t="n">
         <v>3207</v>
       </c>
-      <c r="B3208" t="inlineStr"/>
-      <c r="C3208" t="inlineStr">
+      <c r="B3208" t="inlineStr">
         <is>
           <t>Minerals &amp; Metallurgy</t>
         </is>
       </c>
+      <c r="C3208" t="inlineStr"/>
     </row>
     <row r="3209">
       <c r="A3209" t="n">
@@ -29311,12 +29311,12 @@
       <c r="A3389" t="n">
         <v>3388</v>
       </c>
-      <c r="B3389" t="inlineStr"/>
-      <c r="C3389" t="inlineStr">
+      <c r="B3389" t="inlineStr">
         <is>
           <t>Office &amp; School Supplies</t>
         </is>
       </c>
+      <c r="C3389" t="inlineStr"/>
     </row>
     <row r="3390">
       <c r="A3390" t="n">
@@ -30754,12 +30754,12 @@
       <c r="A3550" t="n">
         <v>3549</v>
       </c>
-      <c r="B3550" t="inlineStr"/>
-      <c r="C3550" t="inlineStr">
+      <c r="B3550" t="inlineStr">
         <is>
           <t>Packaging &amp; Printing</t>
         </is>
       </c>
+      <c r="C3550" t="inlineStr"/>
     </row>
     <row r="3551">
       <c r="A3551" t="n">
@@ -31463,12 +31463,12 @@
       <c r="A3605" t="n">
         <v>3604</v>
       </c>
-      <c r="B3605" t="inlineStr"/>
-      <c r="C3605" t="inlineStr">
+      <c r="B3605" t="inlineStr">
         <is>
           <t>Rubber &amp; Plastics</t>
         </is>
       </c>
+      <c r="C3605" t="inlineStr"/>
     </row>
     <row r="3606">
       <c r="A3606" t="n">
@@ -32095,12 +32095,12 @@
       <c r="A3681" t="n">
         <v>3680</v>
       </c>
-      <c r="B3681" t="inlineStr"/>
-      <c r="C3681" t="inlineStr">
+      <c r="B3681" t="inlineStr">
         <is>
           <t>Security &amp; Protection</t>
         </is>
       </c>
+      <c r="C3681" t="inlineStr"/>
     </row>
     <row r="3682">
       <c r="A3682" t="n">
@@ -32815,12 +32815,12 @@
       <c r="A3765" t="n">
         <v>3764</v>
       </c>
-      <c r="B3765" t="inlineStr"/>
-      <c r="C3765" t="inlineStr">
+      <c r="B3765" t="inlineStr">
         <is>
           <t>Service Equipment</t>
         </is>
       </c>
+      <c r="C3765" t="inlineStr"/>
     </row>
     <row r="3766">
       <c r="A3766" t="n">
@@ -33292,12 +33292,12 @@
       <c r="A3820" t="n">
         <v>3819</v>
       </c>
-      <c r="B3820" t="inlineStr"/>
-      <c r="C3820" t="inlineStr">
+      <c r="B3820" t="inlineStr">
         <is>
           <t>Shoes &amp; Accessories</t>
         </is>
       </c>
+      <c r="C3820" t="inlineStr"/>
     </row>
     <row r="3821">
       <c r="A3821" t="n">
@@ -33811,12 +33811,12 @@
       <c r="A3873" t="n">
         <v>3872</v>
       </c>
-      <c r="B3873" t="inlineStr"/>
-      <c r="C3873" t="inlineStr">
+      <c r="B3873" t="inlineStr">
         <is>
           <t>Sports &amp; Entertainment</t>
         </is>
       </c>
+      <c r="C3873" t="inlineStr"/>
     </row>
     <row r="3874">
       <c r="A3874" t="n">
@@ -35329,12 +35329,12 @@
       <c r="A4071" t="n">
         <v>4070</v>
       </c>
-      <c r="B4071" t="inlineStr"/>
-      <c r="C4071" t="inlineStr">
+      <c r="B4071" t="inlineStr">
         <is>
           <t>Telecommunications</t>
         </is>
       </c>
+      <c r="C4071" t="inlineStr"/>
     </row>
     <row r="4072">
       <c r="A4072" t="n">
@@ -35737,12 +35737,12 @@
       <c r="A4123" t="n">
         <v>4122</v>
       </c>
-      <c r="B4123" t="inlineStr"/>
-      <c r="C4123" t="inlineStr">
+      <c r="B4123" t="inlineStr">
         <is>
           <t>Textiles &amp; Leather Products</t>
         </is>
       </c>
+      <c r="C4123" t="inlineStr"/>
     </row>
     <row r="4124">
       <c r="A4124" t="n">
@@ -36819,12 +36819,12 @@
       <c r="A4261" t="n">
         <v>4260</v>
       </c>
-      <c r="B4261" t="inlineStr"/>
-      <c r="C4261" t="inlineStr">
+      <c r="B4261" t="inlineStr">
         <is>
           <t>Timepieces, Jewelry, Eyewear</t>
         </is>
       </c>
+      <c r="C4261" t="inlineStr"/>
     </row>
     <row r="4262">
       <c r="A4262" t="n">
@@ -37239,12 +37239,12 @@
       <c r="A4317" t="n">
         <v>4316</v>
       </c>
-      <c r="B4317" t="inlineStr"/>
-      <c r="C4317" t="inlineStr">
+      <c r="B4317" t="inlineStr">
         <is>
           <t>Tools</t>
         </is>
       </c>
+      <c r="C4317" t="inlineStr"/>
     </row>
     <row r="4318">
       <c r="A4318" t="n">
@@ -37985,12 +37985,12 @@
       <c r="A4407" t="n">
         <v>4406</v>
       </c>
-      <c r="B4407" t="inlineStr"/>
-      <c r="C4407" t="inlineStr">
+      <c r="B4407" t="inlineStr">
         <is>
           <t>Toys &amp; Hobbies</t>
         </is>
       </c>
+      <c r="C4407" t="inlineStr"/>
     </row>
     <row r="4408">
       <c r="A4408" t="n">
@@ -38671,12 +38671,12 @@
       <c r="A4477" t="n">
         <v>4476</v>
       </c>
-      <c r="B4477" t="inlineStr"/>
-      <c r="C4477" t="inlineStr">
+      <c r="B4477" t="inlineStr">
         <is>
           <t>Transportation</t>
         </is>
       </c>
+      <c r="C4477" t="inlineStr"/>
     </row>
     <row r="4478">
       <c r="A4478" t="n">
